--- a/batch03Framework/ExcelData/inportiaData.xlsx
+++ b/batch03Framework/ExcelData/inportiaData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Key</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>inportia123</t>
+  </si>
+  <si>
+    <t>pageurl</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
   </si>
 </sst>
 </file>
@@ -42,11 +48,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -62,6 +69,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,8 +120,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -128,10 +146,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -165,7 +183,18 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://google.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
